--- a/database/Tables/Appointments.xlsx
+++ b/database/Tables/Appointments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="Appointments" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="474">
   <si>
     <t>id</t>
   </si>
@@ -139,34 +139,16 @@
     <t>2021-03-05 17:57:23.05+00</t>
   </si>
   <si>
-    <t>Test cattle</t>
-  </si>
-  <si>
-    <t>2021-05-05 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618405408/y7fadeqmldztprbpufjn.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-14 13:03:29.183+00</t>
-  </si>
-  <si>
-    <t>2021-04-14 13:03:29.184+00</t>
-  </si>
-  <si>
-    <t>Broken leg</t>
-  </si>
-  <si>
-    <t>2021-04-14 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618424325/rbtcojteohrrpzft5f9p.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-14 18:18:45.518+00</t>
-  </si>
-  <si>
-    <t>2021-04-14 18:18:45.519+00</t>
+    <t>à°†à°µà± à°«à±à°¡à± à°¤à°¿à°¨à°Ÿà±à°²à±‡à°¦à± à°Žà°‚à°¦à±à°µà°²à°¨</t>
+  </si>
+  <si>
+    <t>2021-04-28 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619589942/gv2hjdbtejjreee9vmzb.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-28 06:05:42.97+00</t>
   </si>
   <si>
     <t>Oydohd. U can ufpf</t>
@@ -215,21 +197,6 @@
   </si>
   <si>
     <t>2021-03-02 20:42:02.735+00</t>
-  </si>
-  <si>
-    <t>Cow leg pain</t>
-  </si>
-  <si>
-    <t>2021-03-22 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1616401478/v0NmLfPjWAdEwLR9df0PRwen.jpg,https://res.cloudinary.com/your-highness/image/upload/v1616401478/AKNNVfZsdHPBikTRWjPHYC3Q.jpg}</t>
-  </si>
-  <si>
-    <t>2021-03-22 08:24:40.146+00</t>
-  </si>
-  <si>
-    <t>2021-03-22 11:19:28.973+00</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -263,31 +230,19 @@
     <t>2021-03-01 06:21:52.06+00</t>
   </si>
   <si>
-    <t xml:space="preserve">Ganga has. Broken leg , plz advise </t>
-  </si>
-  <si>
-    <t>2021-04-15 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618463511/zdkb6ikiuaxyxk6lok0a.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-15 05:11:52.383+00</t>
-  </si>
-  <si>
-    <t>2021-04-15 05:11:52.384+00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is still very sick , please help now </t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618481849/ps9xfmp2q4ybmrsjvflt.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-15 10:17:29.871+00</t>
-  </si>
-  <si>
-    <t>2021-04-15 10:17:29.872+00</t>
+    <t>Gurumurthy</t>
+  </si>
+  <si>
+    <t>2021-04-29 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619702435/iW3V_xhNz0caY23unPj8NxVV.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619702435/U6_k_g7jNJEwKn22_Hu3BYpU.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-29 13:20:36.44+00</t>
+  </si>
+  <si>
+    <t>2021-04-29 13:20:36.444+00</t>
   </si>
   <si>
     <t>My beautiful cow ðŸ„ has broken the front legs</t>
@@ -302,18 +257,6 @@
     <t>2021-03-05 17:56:40.942+00</t>
   </si>
   <si>
-    <t xml:space="preserve">How are you doing y??! </t>
-  </si>
-  <si>
-    <t>2021-04-16 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618556718/m17k1qq2f8cv7bezjs0x.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-16 07:05:19.089+00</t>
-  </si>
-  <si>
     <t>Y ta Road kirk dk zzz</t>
   </si>
   <si>
@@ -326,21 +269,6 @@
     <t>2021-03-04 12:13:36.472+00</t>
   </si>
   <si>
-    <t>He is very very sick now , please help him</t>
-  </si>
-  <si>
-    <t>2021-04-17 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618670900/ddbatq0cs8o4dspe7juz.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-17 14:48:20.824+00</t>
-  </si>
-  <si>
-    <t>2021-04-17 14:48:20.825+00</t>
-  </si>
-  <si>
     <t>{http://res.cloudinary.com/your-highness/image/upload/v1614860049/n0s3f04d4w50ke5pvfrc.jpg}</t>
   </si>
   <si>
@@ -446,40 +374,37 @@
     <t>2021-03-15 09:10:28.248+00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi how are you doing </t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618556585/prwnvyzsnvxvmlnkrn8h.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-16 07:03:05.613+00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is very very sick , plz help </t>
-  </si>
-  <si>
-    <t>2021-04-18 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618755431/kzysbkgcq8vvekls88ie.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 14:17:12.241+00</t>
-  </si>
-  <si>
-    <t>2021-04-18 14:17:12.242+00</t>
-  </si>
-  <si>
-    <t>Hi plkjsjana nnnNnajakka. Kkkaakk</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618763719/rznxm3exnhnmbktmjh53.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 16:35:20.432+00</t>
-  </si>
-  <si>
-    <t>2021-04-18 16:35:20.434+00</t>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>Test cattle</t>
+  </si>
+  <si>
+    <t>2021-05-05 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618405408/y7fadeqmldztprbpufjn.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-14 13:03:29.183+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:39:02.378+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suffering Fever </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619691683/kcgypt1zfv0yx1bghfit.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-29 10:21:24.119+00</t>
+  </si>
+  <si>
+    <t>2021-04-30 13:59:02.512+00</t>
+  </si>
+  <si>
+    <t>Broken leg</t>
   </si>
   <si>
     <t>{https://res.cloudinary.com/your-highness/image/upload/v1616090197/yjd6w2lsidb0ojjduduw.jpg}</t>
@@ -491,9 +416,6 @@
     <t>2021-03-18 18:15:35.651+00</t>
   </si>
   <si>
-    <t>rejected</t>
-  </si>
-  <si>
     <t>{https://res.cloudinary.com/your-highness/image/upload/v1616090302/la5xczvjq5ojern89a3p.jpg}</t>
   </si>
   <si>
@@ -548,36 +470,6 @@
     <t>2021-03-17 12:07:12.883+00</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618766291/ci8wt1k3uboaggaqp9cw.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:18:12.484+00</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:18:12.486+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618766308/edlwcai0onnflyi2p14r.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:18:29.035+00</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:18:29.036+00</t>
-  </si>
-  <si>
-    <t>Final Testing cattle</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618766403/tpsf22m6scafngecd4wk.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:20:03.678+00</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:20:03.679+00</t>
-  </si>
-  <si>
     <t>Not eating feed.</t>
   </si>
   <si>
@@ -591,15 +483,6 @@
   </si>
   <si>
     <t>2021-03-19 07:44:44.049+00</t>
-  </si>
-  <si>
-    <t>Mastristage</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1616401527/Ld7CIrLryk79-H7lS-TE7gr1.jpg,https://res.cloudinary.com/your-highness/image/upload/v1616401527/Rm8mIackKjD_uaJbYRrreo3B.jpg}</t>
-  </si>
-  <si>
-    <t>2021-03-22 08:25:27.914+00</t>
   </si>
   <si>
     <t xml:space="preserve">Fever
@@ -622,18 +505,6 @@
     <t>2021-03-23 12:49:20.17+00</t>
   </si>
   <si>
-    <t>Falco odissi odissi odissi Jakarta</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618767084/r8ucd3wn5txbvz8yy01y.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:31:25.366+00</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:31:25.367+00</t>
-  </si>
-  <si>
     <t>Cattle is sick and not healthy</t>
   </si>
   <si>
@@ -646,43 +517,219 @@
     <t>2021-03-27 17:12:22.812+00</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618767728/clzejg5alrxzspg0brl3.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:42:08.947+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618767847/bytcpmtlpsx0ca7q3xdx.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:44:08.079+00</t>
-  </si>
-  <si>
-    <t>2021-04-18 17:44:08.08+00</t>
-  </si>
-  <si>
-    <t>Lellskwkkka jjsjajajaj</t>
+    <t>Browny is feeling sick</t>
   </si>
   <si>
     <t>2021-04-19 00:00:00+00</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618801208/ypohhto6qclzwzgp7ont.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-19 03:00:08.617+00</t>
-  </si>
-  <si>
-    <t>2021-04-19 03:00:08.618+00</t>
-  </si>
-  <si>
-    <t>Browny is feeling sick</t>
-  </si>
-  <si>
     <t>{https://res.cloudinary.com/your-highness/image/upload/v1618824761/g7vypxbwcekk8utzf9qp.jpg}</t>
   </si>
   <si>
     <t>2021-04-19 09:32:42.176+00</t>
+  </si>
+  <si>
+    <t>Final Testing cattle</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618766403/tpsf22m6scafngecd4wk.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-18 17:20:03.678+00</t>
+  </si>
+  <si>
+    <t>2021-04-26 13:20:05.099+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618766291/ci8wt1k3uboaggaqp9cw.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-18 17:18:12.484+00</t>
+  </si>
+  <si>
+    <t>2021-04-26 13:46:37.203+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618766308/edlwcai0onnflyi2p14r.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-18 17:18:29.035+00</t>
+  </si>
+  <si>
+    <t>2021-04-27 02:26:58.748+00</t>
+  </si>
+  <si>
+    <t>mukhomukhi cm l him vim LLC</t>
+  </si>
+  <si>
+    <t>2021-04-26 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619456673/eqovdgofsf2losfjueko.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-26 17:04:34.101+00</t>
+  </si>
+  <si>
+    <t>2021-04-26 17:13:25.691+00</t>
+  </si>
+  <si>
+    <t>2021-04-27 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619526411/lj8yt8lwjkwqlcrxdloy.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-27 12:26:52.297+00</t>
+  </si>
+  <si>
+    <t>2021-04-27 12:26:52.298+00</t>
+  </si>
+  <si>
+    <t>Block sump Karim overly sump</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619456485/rqfzivkqddgxrpltihgg.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-26 17:01:25.694+00</t>
+  </si>
+  <si>
+    <t>2021-04-29 16:33:53.685+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619454108/uhag4tmbdpakj9h0wydf.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-26 16:21:49.26+00</t>
+  </si>
+  <si>
+    <t>2021-04-29 16:36:14.583+00</t>
+  </si>
+  <si>
+    <t>Red and white</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619696090/KVR4WcmSrsO7VyhDo9z1IFGw.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619696090/HBtuEgyQUZooWnM4mjY7-vyt.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-29 11:34:51.48+00</t>
+  </si>
+  <si>
+    <t>2021-05-04 06:56:38.176+00</t>
+  </si>
+  <si>
+    <t>Milk gold is found to be good for the health of edible cows and also helps in improving the quality of milk.</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619696759/fvRb3xs8fULHyYzavt6QH6H9.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619696759/XDSvE9nGgYLDxPmJTaJ8jrCx.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-29 11:46:00.434+00</t>
+  </si>
+  <si>
+    <t>2021-05-02 05:12:50.114+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blood bleeding continue few days 
+</t>
+  </si>
+  <si>
+    <t>2021-04-30 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619758950/x3kkQ3_8gTRsDKDndOhdQ3E-.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619758950/PHEiCn_sAoxohbHQF2G4dJG9.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 05:02:31.347+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:35:32.148+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619758679/duubicmcyx7khnnj1kek.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 04:58:00.086+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 06:28:54.844+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619692510/iqJFwz8lv0P_Q29QhnfWzuhr.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619692510/Wy3qXjB-mY-gEuUfH5RgF1AT.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-29 10:35:11.486+00</t>
+  </si>
+  <si>
+    <t>2021-05-04 07:08:09.558+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bafflo jaffra
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619763310/exdrqis9na2q2b6le3un.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 06:15:10.799+00</t>
+  </si>
+  <si>
+    <t>2021-05-07 12:18:38.675+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619454164/ajhgkok7iut6p8sjydax.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-26 16:22:45.308+00</t>
+  </si>
+  <si>
+    <t>2021-05-12 16:15:47.513+00</t>
+  </si>
+  <si>
+    <t>Kuchh Cyndy keep à°²à°¾à°•à± à°…à°ªà±à°ªà±à°¡à± à°¨à°¾à°•à± à°µà°¾à°šà±€ à°ªà±‹à°¤à±à°‚à°¦à°¿à°°à°¾ à°²à±‹</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619456648/uufj1wyh1gegtuh5qf9n.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-26 17:04:09.452+00</t>
+  </si>
+  <si>
+    <t>2021-05-16 06:29:36.837+00</t>
+  </si>
+  <si>
+    <t>à°µà°¿à°°à±‹à°šà°¨à°²à± 4 à°°à±‹à°œà±à°² à°¨à±à°‚à°¡à°¿</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618839669/s6tsm3bfwkt8slbyprb5.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-19 13:41:09.997+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 08:19:13.558+00</t>
+  </si>
+  <si>
+    <t>My cow gowari is pregnant please required medicines</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619763834/nt5axxxlwapnh0ix1j8k.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 06:23:54.754+00</t>
+  </si>
+  <si>
+    <t>2021-04-30 06:23:54.755+00</t>
+  </si>
+  <si>
+    <t>Daily feeding %</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619765230/l82twiy3duccien77bfj.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 06:47:11.523+00</t>
   </si>
   <si>
     <t xml:space="preserve">Not feeling well
@@ -695,31 +742,725 @@
     <t>2021-04-19 09:43:13.251+00</t>
   </si>
   <si>
-    <t>à°µà°¿à°°à±‹à°šà°¨à°²à± 4 à°°à±‹à°œà±à°² à°¨à±à°‚à°¡à°¿</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618839669/s6tsm3bfwkt8slbyprb5.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-19 13:41:09.997+00</t>
-  </si>
-  <si>
-    <t>2021-04-19 13:41:09.998+00</t>
-  </si>
-  <si>
-    <t>Hi how are you doing?</t>
-  </si>
-  <si>
-    <t>2021-04-20 00:00:00+00</t>
-  </si>
-  <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1618938642/m4swdnvyu35ing9jtwfz.jpg}</t>
-  </si>
-  <si>
-    <t>2021-04-20 17:10:44.759+00</t>
-  </si>
-  <si>
-    <t>2021-04-20 17:10:44.76+00</t>
+    <t>2021-04-30 08:36:02.125+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahival milking cow
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619779435/u6yyScTbrOfCjyZnGwsw5q93.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619779435/OCNu6Qj0LWf_NeCmkaR08CiX.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 10:43:56.295+00</t>
+  </si>
+  <si>
+    <t>2021-04-30 10:43:56.296+00</t>
+  </si>
+  <si>
+    <t>PSVNPKSRMB</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619780240/TUyqB_YHsnygIVrWBEhwNkfc.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619780240/kct78Rw9iJZQ8RQqo7_ybSbL.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 10:57:21.591+00</t>
+  </si>
+  <si>
+    <t>2021-04-30 10:57:21.592+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619780510/G1-i3D4Doxl4O8w4FMWA0lvo.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619780510/v1qpolQz9FwL0WQ3vSG-q88y.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 11:01:51.169+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619781449/8U_ghr0RITvCgRYDwUiuRF8Y.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619781449/0Eukj8ugnyAvwa0Lo9GXuUm5.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 11:17:30.092+00</t>
+  </si>
+  <si>
+    <t>2021-04-30 11:17:30.093+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619781639/CrMzyygIqzXLXt9XA4XZGcLb.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619781639/QZpX8ZhAuCT6Mo_vtDBPSYrZ.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 11:20:39.794+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619693157/cyXWSd0UbonSnqxQlof_vjfa.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619693157/RwmMkzAKHKwH2dOqx14vnCXK.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-29 10:45:58.386+00</t>
+  </si>
+  <si>
+    <t>2021-04-30 13:57:13.29+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cow milk 
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619791829/YppQpbRfJzjr8638sSCYDkxw.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619791829/q8Rv87Ckt_rvjgHTo7BtjTm2.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 14:10:30.246+00</t>
+  </si>
+  <si>
+    <t>2021-04-30 14:10:30.247+00</t>
+  </si>
+  <si>
+    <t>2021-05-01 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619848317/il-qnRS3XNCXowdMQNlTkPQd.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619848317/qTFPw7DXWjnJVfTcipEjcHjE.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 05:51:57.719+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:45:42.544+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619848253/4aJ0ZNn_ZxLw25ON9LcHFX94.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619848253/K9OX3vgph3JOzL3dihwUj0rn.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 05:50:54.104+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:45:50.651+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619848078/FlgeLiZ2sFWwn2fSre92bOL-.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619848078/StixAI4LdH_5NV95E2nMbnzD.png}</t>
+  </si>
+  <si>
+    <t>2021-05-01 05:47:58.82+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:46:02.852+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over blood bleeding few days </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619776155/dbRV0lLz5SVNJcud7YmrKW7s.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619776155/QaHKNNA-ysBlJ_6lR5W5--kg.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 09:49:16.146+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 06:34:37.968+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My yami is nice caw
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619852990/qxlsfvjv6529sne2nacu.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 07:09:51.3+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 07:42:52.06+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pramod  Awate </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619794898/reqa20ihwolesce76bgi.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 15:01:40.468+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 07:46:50.612+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milking animal daily milk production of this Buffalo is 6 lit once time. 
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619854139/yztyq4ai3mrcmo2dplhm.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 07:29:00.685+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 08:49:35.706+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619849418/BXJqKNXD8ydn-6yhX0H5DAuF.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619849418/SM_PZvUtcg5vduFX0Xbo5Weh.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 06:10:19.23+00</t>
+  </si>
+  <si>
+    <t>2021-05-06 05:24:08.302+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sona cow good hf cow milking production 20ltrper day </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619850962/uvyhkzotg8dbbbm1vk8c.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 06:36:02.63+00</t>
+  </si>
+  <si>
+    <t>2021-05-06 05:14:16.42+00</t>
+  </si>
+  <si>
+    <t>Village :-fapore</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619848022/de4zhlkx7fxksqxyvteh.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 05:47:03.328+00</t>
+  </si>
+  <si>
+    <t>2021-05-06 05:31:10.478+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prathmesh
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619776906/o3CsEdkHilNbyxtBwAtHhX_y.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619776906/TRCl7Qsr1696ygw0KJ1N9L6E.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 10:01:46.751+00</t>
+  </si>
+  <si>
+    <t>2021-05-07 06:25:07.696+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pramod Awate </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619794777/IpE-I4Oi2NdTNw8HO1T-H0bD.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619794777/36c8MGPmtw7QMgAcw-IcLL6O.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 14:59:38.512+00</t>
+  </si>
+  <si>
+    <t>2021-05-07 06:17:27.151+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619780384/q-fZhjWbsLPeZhrHzj473iKF.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619780384/i2EJdWlbSAxbG_chwnlBKr0T.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 10:59:44.774+00</t>
+  </si>
+  <si>
+    <t>2021-05-13 07:01:32.973+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomar problem </t>
+  </si>
+  <si>
+    <t>2021-05-04 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620097606/zgwv9cwle33h686p4gdi.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 03:06:46.842+00</t>
+  </si>
+  <si>
+    <t>2021-05-06 14:23:24.13+00</t>
+  </si>
+  <si>
+    <t>Ssssssssss</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619854542/m9fyt6ghmww5wlqg0yyg.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 07:35:43.188+00</t>
+  </si>
+  <si>
+    <t>2021-05-01 08:11:01.852+00</t>
+  </si>
+  <si>
+    <t>First photo cow is 3rd baby, 2nd photo is 2nd baby</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619873674/6hjoiG2v8aQ6cMO9zFOm_dZB.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619873674/jv8ecgLgF36E1hRx-Sdh_zfV.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 12:54:34.801+00</t>
+  </si>
+  <si>
+    <t>Milk nikalne se pahile hi panha chodti hai&amp; silent heet hai.milk kam ho raha hai</t>
+  </si>
+  <si>
+    <t>2021-05-03 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620005042/6F-baK0A5ZJtzjmSVeHnBSvN.jpg,https://res.cloudinary.com/your-highness/image/upload/v1620005042/1yhuQp367E3tCTzudsqaxiqZ.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-03 01:24:03.778+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:02:18.771+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murra jathi buffallow 
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619880856/dNpMlL016c-RfLm6v6Zof5XO.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619880856/a3SCrzmcWjpsyJMIHYTlPdp6.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 14:54:17.106+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:34:40.279+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619848162/D0jWPZQFhpZTEF-7ijjPn_Mb.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619848162/JMwtzbJdwm-NFo28aB_7s3S0.png}</t>
+  </si>
+  <si>
+    <t>2021-05-01 05:49:22.586+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:45:17.676+00</t>
+  </si>
+  <si>
+    <t>Kiran mutual</t>
+  </si>
+  <si>
+    <t>2021-05-02 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619930208/30u5zaVxcGuv_m7x5EHGziZf.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619930208/30BRwXTD8Jhzfxg1y8iHk5fA.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-02 04:36:48.878+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 06:10:13.552+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619880945/XL_hnq7Becs87wAmpsaOV0Az.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619880945/OvbbfLyk003jX2UTrLWGPiea.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-01 14:55:45.481+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 06:28:23.103+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milking problem
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620097334/q2nef176awpiuke9tv13.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 03:02:15.137+00</t>
+  </si>
+  <si>
+    <t>2021-05-06 14:29:45.933+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back side leg </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620017482/z8hmcgaagegam7ipqcsg.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-03 04:51:22.725+00</t>
+  </si>
+  <si>
+    <t>2021-05-03 08:43:12.023+00</t>
+  </si>
+  <si>
+    <t>Poduguvapu</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620105284/ztq6kk3wzxnylzrhxlg3.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 05:14:44.671+00</t>
+  </si>
+  <si>
+    <t>2021-05-04 05:14:44.672+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hello sir,
+How to increase milk in 15days delivery cow? And We are giving flakes, feeds, wheat powder and calcium.... But it is giving 3 liters only... What is the treatment for this? </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620044440/lvqhjhfx9izd4lcnablr.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-03 12:20:40.611+00</t>
+  </si>
+  <si>
+    <t>2021-05-07 12:47:29.246+00</t>
+  </si>
+  <si>
+    <t>Hello sir
+Miking density fat low dairy products giving power feed and herita vet,cal used fat as low please impove the fat som suggestions sir</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620101962/qyfkqrudio1u5rmuvhvc.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 04:19:22.838+00</t>
+  </si>
+  <si>
+    <t>2021-05-09 11:35:10.582+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hello sir,                    My animal 6   milk hilding not increasing please give  any suggestion.</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620044943/xzjdgwwq2hzvlpgrgnua.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-03 12:29:04.162+00</t>
+  </si>
+  <si>
+    <t>2021-05-09 11:58:50.614+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620105296/qjfmxop85ms97ocvxhle.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 05:14:56.96+00</t>
+  </si>
+  <si>
+    <t>2021-05-13 07:00:31.392+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sick from past one week
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620097916/omgx6iywiohrdugo6elu.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 03:11:57.555+00</t>
+  </si>
+  <si>
+    <t>2021-05-13 07:00:44.817+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à°…à°µà± edhakki ravdamledhu emcheyyali </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619917542/m03yuw3kzyvkxi0fstma.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-02 01:05:43.926+00</t>
+  </si>
+  <si>
+    <t>2021-05-13 07:14:42.68+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620150742/pxhlxblrm53htbmoeuqt.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 17:52:22.252+00</t>
+  </si>
+  <si>
+    <t>à¤¸à¤¬à¤¸à¥‡ à¤…à¤šà¥à¤›à¥€ à¤¡à¥‡à¤°à¥€ à¤¹à¥ˆ</t>
+  </si>
+  <si>
+    <t>2021-05-15 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1621057772/Zpo_1-fNTyY-7oqd6rSvIlU-.jpg,https://res.cloudinary.com/your-highness/image/upload/v1621057772/H0loCf9pL9kd-Dz8ig9fPJQj.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-15 05:49:32.481+00</t>
+  </si>
+  <si>
+    <t>2021-05-15 06:32:25.238+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milk problems </t>
+  </si>
+  <si>
+    <t>2021-05-06 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620306517/tklGeS6EepgGEHvLxI3Q77_W.jpg,https://res.cloudinary.com/your-highness/image/upload/v1620306517/LWsaeerSGcWjHLKJNrJJpyKQ.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-06 13:08:38.73+00</t>
+  </si>
+  <si>
+    <t>2021-05-07 00:55:17.767+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tagarampudi rmc
+</t>
+  </si>
+  <si>
+    <t>2021-05-07 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620380050/iygbb9mitfdpjp5uminc.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-07 09:34:11.433+00</t>
+  </si>
+  <si>
+    <t>2021-05-07 12:22:43.347+00</t>
+  </si>
+  <si>
+    <t>Ok..........</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619692172/ej9d4wyzsyua4fzlnttu.png}</t>
+  </si>
+  <si>
+    <t>2021-04-29 10:29:32.544+00</t>
+  </si>
+  <si>
+    <t>2021-05-07 12:27:17.065+00</t>
+  </si>
+  <si>
+    <t>Super appointment</t>
+  </si>
+  <si>
+    <t>2021-05-08 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620451701/nmxtrtebx3san7zeujaj.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-08 05:28:21.863+00</t>
+  </si>
+  <si>
+    <t>2021-05-09 11:46:27.867+00</t>
+  </si>
+  <si>
+    <t>Helt problem</t>
+  </si>
+  <si>
+    <t>2021-05-10 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620613650/w5v1ptwfrnugz3wblhhe.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-10 02:27:31.32+00</t>
+  </si>
+  <si>
+    <t>2021-05-10 07:27:59.995+00</t>
+  </si>
+  <si>
+    <t>Lakshmi 225</t>
+  </si>
+  <si>
+    <t>2021-05-09 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620569450/ogjkf1yhnqrulaeg8mi8.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-09 14:10:51.286+00</t>
+  </si>
+  <si>
+    <t>2021-05-11 13:06:57.581+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshmi 112
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620569387/svqryqvkxgw8h2z2airk.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-09 14:09:47.534+00</t>
+  </si>
+  <si>
+    <t>2021-05-11 13:07:35.904+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As busy As bee with Heritage </t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620475539/FkjYxL9vhBj7bPe4_qCCrdS-.jpg,https://res.cloudinary.com/your-highness/image/upload/v1620475540/zMFlgbt0TvPfy4D1Zk3a0C3s.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-08 12:05:40.721+00</t>
+  </si>
+  <si>
+    <t>2021-05-12 15:17:01.017+00</t>
+  </si>
+  <si>
+    <t>Giving 9 lit</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620381391/YBKXoeUyPl5qRzN0HR3mvMKN.jpg,https://res.cloudinary.com/your-highness/image/upload/v1620381391/0pK4dk0s-HvxbU_dJuNxrhFF.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-07 09:56:32.383+00</t>
+  </si>
+  <si>
+    <t>2021-05-12 15:37:00.71+00</t>
+  </si>
+  <si>
+    <t>It's to paining for the cow</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620176311/HNHKrJ8xbl2vCUt8YvNF_6Ap.jpg,https://res.cloudinary.com/your-highness/image/upload/v1620176311/08poLLhP7ym6DtgLiCcryv9o.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-05 00:58:32.41+00</t>
+  </si>
+  <si>
+    <t>2021-05-13 07:00:11.254+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619780442/wCvyhnn9Mf41j_42Lup85ADO.jpg,https://res.cloudinary.com/your-highness/image/upload/v1619780442/RuwggCdes-uzkTAHgv0DY-Hf.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 11:00:42.936+00</t>
+  </si>
+  <si>
+    <t>2021-05-13 07:01:47.283+00</t>
+  </si>
+  <si>
+    <t>Good message</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1619761748/z0swf5tnabweuchwoddj.jpg}</t>
+  </si>
+  <si>
+    <t>2021-04-30 05:49:09.372+00</t>
+  </si>
+  <si>
+    <t>2021-05-16 06:34:43.269+00</t>
+  </si>
+  <si>
+    <t>Insurance required</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620175095/Prx4vD_0SXc8nscJ286vErib.jpg,https://res.cloudinary.com/your-highness/image/upload/v1620175095/Jx1wx4ybsNZkwsKtnrjpyxj6.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-05 00:38:16.198+00</t>
+  </si>
+  <si>
+    <t>2021-05-16 06:45:13.005+00</t>
+  </si>
+  <si>
+    <t>à¤—à¤¾à¤ˆ à¤šà¤¾à¤°à¤¾ à¤–à¤¾à¤¤ à¤¨à¤¾à¤¹à¥€</t>
+  </si>
+  <si>
+    <t>2021-05-16 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1621143144/FBbysh8ue5mZz2EWkHQ2MgE4.jpg,https://res.cloudinary.com/your-highness/image/upload/v1621143144/IBLtsDL52CuxWS1Bk8-t-BSL.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-16 05:32:25.317+00</t>
+  </si>
+  <si>
+    <t>2021-05-16 15:04:58.112+00</t>
+  </si>
+  <si>
+    <t>Animal sik</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1621128202/rorelzecfixs0zxnzdew.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-16 01:23:22.943+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 04:57:27.494+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to devolop through the animal
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620269831/lezpkk1kicxwtovzymmt.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-06 02:57:11.473+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 08:32:18.37+00</t>
+  </si>
+  <si>
+    <t>Healthy animal</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1621128121/orxdrevesw4stwiosxsw.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-16 01:22:02.407+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 04:58:03.679+00</t>
+  </si>
+  <si>
+    <t>3rd loction</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620310251/oQBs2b-EP4h27_UAKW09Jdp9.jpg,https://res.cloudinary.com/your-highness/image/upload/v1620310251/Xeg3lsT1y6AKgHfQk57ZhSp4.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-06 14:10:52.598+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 07:53:07.683+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not eat grass some times
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620188102/ih0lhmkwk9zbyo4o8hwf.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-05 04:15:03.144+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 08:36:35.088+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to devalop the milk animal 
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620273499/hrj53jtx1l4meywfhnxl.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-06 03:58:20.304+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 08:18:56.256+00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to devolop milk through the animal
+</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620269853/i0vfwthbul88uwi3s0ck.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-06 02:57:33.998+00</t>
+  </si>
+  <si>
+    <t>2021-05-17 08:44:10.346+00</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1815,16 +2556,16 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>389</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1835,8 +2576,8 @@
       <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.5</v>
+      <c r="I8" s="1">
+        <v>0.4826388888888889</v>
       </c>
       <c r="J8" t="s">
         <v>43</v>
@@ -1845,432 +2586,432 @@
         <v>44</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>246</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>282</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.99652777777777779</v>
+      </c>
+      <c r="J9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="1">
-        <v>0.84583333333333333</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
         <v>54</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="1">
+        <v>0.43611111111111112</v>
+      </c>
+      <c r="J11" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="1">
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>56</v>
       </c>
-      <c r="K11" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>2</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J12" t="s">
         <v>59</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="1">
-        <v>0.43611111111111112</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" t="s">
-        <v>62</v>
-      </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
         <v>63</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>64</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K13" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>96</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.49374999999999997</v>
+      </c>
+      <c r="J14" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="1">
-        <v>0.57916666666666672</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>69</v>
-      </c>
-      <c r="K14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>313</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>383</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="J15" t="s">
         <v>72</v>
       </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.72152777777777777</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>73</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>74</v>
-      </c>
-      <c r="L15" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="J16" t="s">
         <v>76</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="2">
-        <v>0.49374999999999997</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>78</v>
-      </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="J17" t="s">
         <v>81</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="1">
-        <v>0.44375000000000003</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
-      </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I18" s="1">
-        <v>0.65763888888888888</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I19" s="1">
-        <v>0.8305555555555556</v>
+        <v>0.75763888888888886</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>88</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>251</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I20" s="1">
-        <v>0.52222222222222225</v>
+        <v>0.75763888888888886</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -2285,68 +3026,71 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1">
-        <v>0.73819444444444438</v>
+        <v>0.68888888888888899</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="I22" s="1">
-        <v>0.84513888888888899</v>
+        <v>0.70347222222222217</v>
       </c>
       <c r="J22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -2358,643 +3102,652 @@
         <v>99</v>
       </c>
       <c r="I23" s="1">
-        <v>0.73888888888888893</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="J23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H24" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="1">
-        <v>0.75763888888888886</v>
+        <v>0.49236111111111108</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H25" t="s">
         <v>99</v>
       </c>
       <c r="I25" s="1">
-        <v>0.75763888888888886</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="J25" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.68888888888888899</v>
+        <v>110</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="I27" s="1">
-        <v>0.70347222222222217</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>30</v>
-      </c>
       <c r="D28">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G28" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28" t="s">
         <v>122</v>
       </c>
-      <c r="H28" t="s">
+      <c r="L28" t="s">
         <v>123</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="J28" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>960</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>942</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.66041666666666665</v>
+      </c>
+      <c r="J29" t="s">
+        <v>125</v>
+      </c>
+      <c r="K29" t="s">
         <v>126</v>
       </c>
-      <c r="H29" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.49236111111111108</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>127</v>
-      </c>
-      <c r="K29" t="s">
-        <v>128</v>
-      </c>
-      <c r="L29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>59</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>37</v>
-      </c>
       <c r="D30">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
       </c>
       <c r="F30" t="s">
         <v>23</v>
       </c>
       <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.8305555555555556</v>
+      </c>
+      <c r="J30" t="s">
         <v>129</v>
       </c>
-      <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.48888888888888887</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>130</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>131</v>
-      </c>
-      <c r="L30" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" t="s">
         <v>133</v>
       </c>
-      <c r="H31" t="s">
+      <c r="L31" t="s">
         <v>134</v>
-      </c>
-      <c r="I31" s="2">
-        <v>5.4166666666666669E-2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>135</v>
-      </c>
-      <c r="K31" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="J32" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" t="s">
+        <v>137</v>
+      </c>
+      <c r="L32" t="s">
         <v>138</v>
-      </c>
-      <c r="H32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="J32" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>87</v>
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>296</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I33" s="1">
-        <v>0.52152777777777781</v>
+        <v>0.8125</v>
       </c>
       <c r="J33" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>90</v>
+        <v>64</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>254</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.9784722222222223</v>
+      </c>
+      <c r="J34" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" t="s">
         <v>145</v>
-      </c>
-      <c r="H34" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="J34" t="s">
-        <v>147</v>
-      </c>
-      <c r="K34" t="s">
-        <v>148</v>
-      </c>
-      <c r="L34" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>91</v>
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>254</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>298</v>
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="I35" s="1">
-        <v>0.91875000000000007</v>
+        <v>0.48819444444444443</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>58</v>
-      </c>
-      <c r="E36">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="I36" s="1">
-        <v>0.8305555555555556</v>
+        <v>0.55138888888888882</v>
       </c>
       <c r="J36" t="s">
+        <v>152</v>
+      </c>
+      <c r="K36" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" t="s">
         <v>154</v>
-      </c>
-      <c r="K36" t="s">
-        <v>155</v>
-      </c>
-      <c r="L36" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.72361111111111109</v>
+      </c>
+      <c r="J37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" t="s">
         <v>157</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.83194444444444438</v>
-      </c>
-      <c r="J37" t="s">
-        <v>158</v>
-      </c>
-      <c r="K37" t="s">
-        <v>159</v>
-      </c>
       <c r="L37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D38">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I38" s="1">
-        <v>0.65694444444444444</v>
+        <v>0.76250000000000007</v>
       </c>
       <c r="J38" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L38" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="I39" s="1">
-        <v>0.8125</v>
+        <v>0.94513888888888886</v>
       </c>
       <c r="J39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="J40" t="s">
+        <v>167</v>
+      </c>
+      <c r="K40" t="s">
         <v>168</v>
       </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.9784722222222223</v>
-      </c>
-      <c r="J40" t="s">
-        <v>169</v>
-      </c>
-      <c r="K40" t="s">
-        <v>170</v>
-      </c>
       <c r="L40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="C41">
-        <v>30</v>
-      </c>
       <c r="D41">
-        <v>37</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>23</v>
       </c>
       <c r="G41" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>170</v>
+      </c>
+      <c r="K41" t="s">
+        <v>171</v>
+      </c>
+      <c r="L41" t="s">
         <v>172</v>
-      </c>
-      <c r="H41" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.48819444444444443</v>
-      </c>
-      <c r="J41" t="s">
-        <v>173</v>
-      </c>
-      <c r="K41" t="s">
-        <v>174</v>
-      </c>
-      <c r="L41" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3010,26 +3763,29 @@
       <c r="D42">
         <v>2</v>
       </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="H42" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="I42" s="2">
         <v>0.5</v>
       </c>
       <c r="J42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K42" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L42" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3046,258 +3802,261 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="I43" s="2">
         <v>0.5</v>
       </c>
       <c r="J43" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
+        <v>179</v>
+      </c>
+      <c r="H44" t="s">
+        <v>180</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="J44" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" t="s">
         <v>182</v>
       </c>
-      <c r="H44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>183</v>
-      </c>
-      <c r="K44" t="s">
-        <v>184</v>
-      </c>
-      <c r="L44" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>55</v>
+        <v>307</v>
       </c>
       <c r="D45">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>184</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="J45" t="s">
+        <v>185</v>
+      </c>
+      <c r="K45" t="s">
         <v>186</v>
       </c>
-      <c r="H45" t="s">
+      <c r="L45" t="s">
         <v>187</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.55138888888888882</v>
-      </c>
-      <c r="J45" t="s">
-        <v>188</v>
-      </c>
-      <c r="K45" t="s">
-        <v>189</v>
-      </c>
-      <c r="L45" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>104</v>
+        <v>276</v>
       </c>
       <c r="D46">
-        <v>142</v>
+        <v>319</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G46" t="s">
+        <v>188</v>
+      </c>
+      <c r="H46" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.93611111111111101</v>
+      </c>
+      <c r="J46" t="s">
+        <v>189</v>
+      </c>
+      <c r="K46" t="s">
+        <v>190</v>
+      </c>
+      <c r="L46" t="s">
         <v>191</v>
-      </c>
-      <c r="H46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.57986111111111105</v>
-      </c>
-      <c r="J46" t="s">
-        <v>192</v>
-      </c>
-      <c r="K46" t="s">
-        <v>193</v>
-      </c>
-      <c r="L46" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="D47">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>192</v>
+      </c>
+      <c r="K47" t="s">
+        <v>193</v>
+      </c>
+      <c r="L47" t="s">
         <v>194</v>
-      </c>
-      <c r="H47" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.72361111111111109</v>
-      </c>
-      <c r="J47" t="s">
-        <v>195</v>
-      </c>
-      <c r="K47" t="s">
-        <v>196</v>
-      </c>
-      <c r="L47" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>157</v>
+        <v>789</v>
       </c>
       <c r="D48">
-        <v>214</v>
+        <v>976</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.71111111111111114</v>
+      </c>
+      <c r="J48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" t="s">
         <v>197</v>
       </c>
-      <c r="H48" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.76250000000000007</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>198</v>
-      </c>
-      <c r="K48" t="s">
-        <v>199</v>
-      </c>
-      <c r="L48" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>95</v>
+        <v>125</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>254</v>
+        <v>969</v>
       </c>
       <c r="D49">
-        <v>298</v>
+        <v>946</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G49" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="J49" t="s">
         <v>200</v>
       </c>
-      <c r="H49" t="s">
-        <v>146</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.95694444444444438</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>201</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>202</v>
-      </c>
-      <c r="L49" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>74</v>
+        <v>1324</v>
       </c>
       <c r="D50">
-        <v>94</v>
+        <v>1358</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" t="s">
         <v>204</v>
       </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
       <c r="I50" s="1">
-        <v>0.94513888888888886</v>
+        <v>0.4375</v>
       </c>
       <c r="J50" t="s">
         <v>205</v>
@@ -3311,28 +4070,31 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>255</v>
+        <v>339</v>
       </c>
       <c r="D51">
-        <v>297</v>
+        <v>342</v>
+      </c>
+      <c r="E51">
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="G51">
+        <v>1234567890</v>
       </c>
       <c r="H51" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="I51" s="1">
-        <v>0.82013888888888886</v>
+        <v>0.43541666666666662</v>
       </c>
       <c r="J51" t="s">
         <v>208</v>
@@ -3341,68 +4103,68 @@
         <v>209</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>255</v>
+        <v>969</v>
       </c>
       <c r="D52">
-        <v>297</v>
+        <v>946</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="H52" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="I52" s="1">
-        <v>0.82152777777777775</v>
+        <v>0.6694444444444444</v>
       </c>
       <c r="J52" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>260</v>
+        <v>1456</v>
       </c>
       <c r="D53">
-        <v>300</v>
+        <v>1454</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>213</v>
+        <v>23</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="H53" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="I53" s="1">
-        <v>0.3527777777777778</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="J53" t="s">
         <v>215</v>
@@ -3416,34 +4178,34 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D54">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="G54" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" t="s">
+        <v>180</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="J54" t="s">
         <v>218</v>
       </c>
-      <c r="H54" t="s">
-        <v>214</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0.62638888888888888</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>219</v>
-      </c>
-      <c r="K54" t="s">
-        <v>220</v>
       </c>
       <c r="L54" t="s">
         <v>220</v>
@@ -3451,28 +4213,31 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>59</v>
+        <v>276</v>
       </c>
       <c r="D55">
-        <v>78</v>
+        <v>320</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
         <v>221</v>
       </c>
       <c r="H55" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="I55" s="1">
-        <v>0.6333333333333333</v>
+        <v>0.93958333333333333</v>
       </c>
       <c r="J55" t="s">
         <v>222</v>
@@ -3481,7 +4246,7 @@
         <v>223</v>
       </c>
       <c r="L55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3494,49 +4259,55 @@
       <c r="D56">
         <v>301</v>
       </c>
+      <c r="E56">
+        <v>31</v>
+      </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H56" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="I56" s="1">
         <v>0.7993055555555556</v>
       </c>
       <c r="J56" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>102</v>
+        <v>165</v>
+      </c>
+      <c r="B57">
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>260</v>
+        <v>1463</v>
       </c>
       <c r="D57">
-        <v>300</v>
+        <v>1466</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H57" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="I57" s="1">
-        <v>0.94374999999999998</v>
+        <v>0.49513888888888885</v>
       </c>
       <c r="J57" t="s">
         <v>230</v>
@@ -3546,6 +4317,2209 @@
       </c>
       <c r="L57" t="s">
         <v>232</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>166</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>1487</v>
+      </c>
+      <c r="D58">
+        <v>1492</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>233</v>
+      </c>
+      <c r="H58" t="s">
+        <v>204</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="J58" t="s">
+        <v>234</v>
+      </c>
+      <c r="K58" t="s">
+        <v>235</v>
+      </c>
+      <c r="L58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J59" t="s">
+        <v>237</v>
+      </c>
+      <c r="K59" t="s">
+        <v>238</v>
+      </c>
+      <c r="L59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>169</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>760</v>
+      </c>
+      <c r="D60">
+        <v>774</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H60" t="s">
+        <v>204</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0.67569444444444438</v>
+      </c>
+      <c r="J60" t="s">
+        <v>241</v>
+      </c>
+      <c r="K60" t="s">
+        <v>242</v>
+      </c>
+      <c r="L60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>170</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>1546</v>
+      </c>
+      <c r="D61">
+        <v>1598</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>244</v>
+      </c>
+      <c r="H61" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0.68472222222222223</v>
+      </c>
+      <c r="J61" t="s">
+        <v>245</v>
+      </c>
+      <c r="K61" t="s">
+        <v>246</v>
+      </c>
+      <c r="L61" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>173</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>1546</v>
+      </c>
+      <c r="D62">
+        <v>1598</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>244</v>
+      </c>
+      <c r="H62" t="s">
+        <v>204</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0.6875</v>
+      </c>
+      <c r="J62" t="s">
+        <v>248</v>
+      </c>
+      <c r="K62" t="s">
+        <v>249</v>
+      </c>
+      <c r="L62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>174</v>
+      </c>
+      <c r="B63">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>1546</v>
+      </c>
+      <c r="D63">
+        <v>1598</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>244</v>
+      </c>
+      <c r="H63" t="s">
+        <v>204</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="J63" t="s">
+        <v>250</v>
+      </c>
+      <c r="K63" t="s">
+        <v>251</v>
+      </c>
+      <c r="L63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>175</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>1546</v>
+      </c>
+      <c r="D64">
+        <v>1598</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>244</v>
+      </c>
+      <c r="H64" t="s">
+        <v>204</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="J64" t="s">
+        <v>253</v>
+      </c>
+      <c r="K64" t="s">
+        <v>254</v>
+      </c>
+      <c r="L64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>122</v>
+      </c>
+      <c r="B65">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>969</v>
+      </c>
+      <c r="D65">
+        <v>946</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.67638888888888893</v>
+      </c>
+      <c r="J65" t="s">
+        <v>255</v>
+      </c>
+      <c r="K65" t="s">
+        <v>256</v>
+      </c>
+      <c r="L65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>176</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>1197</v>
+      </c>
+      <c r="D66">
+        <v>1171</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66" t="s">
+        <v>204</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0.82013888888888886</v>
+      </c>
+      <c r="J66" t="s">
+        <v>259</v>
+      </c>
+      <c r="K66" t="s">
+        <v>260</v>
+      </c>
+      <c r="L66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>183</v>
+      </c>
+      <c r="B67">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>1908</v>
+      </c>
+      <c r="D67">
+        <v>1924</v>
+      </c>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67">
+        <v>1234567891</v>
+      </c>
+      <c r="H67" t="s">
+        <v>262</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0.47291666666666665</v>
+      </c>
+      <c r="J67" t="s">
+        <v>263</v>
+      </c>
+      <c r="K67" t="s">
+        <v>264</v>
+      </c>
+      <c r="L67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>182</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>1908</v>
+      </c>
+      <c r="D68">
+        <v>1924</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68">
+        <v>1234567891</v>
+      </c>
+      <c r="H68" t="s">
+        <v>262</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="J68" t="s">
+        <v>266</v>
+      </c>
+      <c r="K68" t="s">
+        <v>267</v>
+      </c>
+      <c r="L68" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>180</v>
+      </c>
+      <c r="B69">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>1908</v>
+      </c>
+      <c r="D69">
+        <v>1924</v>
+      </c>
+      <c r="F69" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69">
+        <v>1234567891</v>
+      </c>
+      <c r="H69" t="s">
+        <v>262</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0.47013888888888888</v>
+      </c>
+      <c r="J69" t="s">
+        <v>269</v>
+      </c>
+      <c r="K69" t="s">
+        <v>270</v>
+      </c>
+      <c r="L69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>167</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <v>1324</v>
+      </c>
+      <c r="D70">
+        <v>1358</v>
+      </c>
+      <c r="F70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>272</v>
+      </c>
+      <c r="H70" t="s">
+        <v>204</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0.63611111111111118</v>
+      </c>
+      <c r="J70" t="s">
+        <v>273</v>
+      </c>
+      <c r="K70" t="s">
+        <v>274</v>
+      </c>
+      <c r="L70" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>186</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>1998</v>
+      </c>
+      <c r="D71">
+        <v>2048</v>
+      </c>
+      <c r="F71" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H71" t="s">
+        <v>262</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0.52708333333333335</v>
+      </c>
+      <c r="J71" t="s">
+        <v>277</v>
+      </c>
+      <c r="K71" t="s">
+        <v>278</v>
+      </c>
+      <c r="L71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>178</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>1562</v>
+      </c>
+      <c r="D72">
+        <v>1675</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>280</v>
+      </c>
+      <c r="H72" t="s">
+        <v>204</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="J72" t="s">
+        <v>281</v>
+      </c>
+      <c r="K72" t="s">
+        <v>282</v>
+      </c>
+      <c r="L72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>187</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>2020</v>
+      </c>
+      <c r="D73">
+        <v>2078</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H73" t="s">
+        <v>262</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.54027777777777775</v>
+      </c>
+      <c r="J73" t="s">
+        <v>285</v>
+      </c>
+      <c r="K73" t="s">
+        <v>286</v>
+      </c>
+      <c r="L73" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>184</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>960</v>
+      </c>
+      <c r="D74">
+        <v>942</v>
+      </c>
+      <c r="F74" t="s">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>288</v>
+      </c>
+      <c r="H74" t="s">
+        <v>262</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J74" t="s">
+        <v>289</v>
+      </c>
+      <c r="K74" t="s">
+        <v>290</v>
+      </c>
+      <c r="L74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>185</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>1967</v>
+      </c>
+      <c r="D75">
+        <v>1998</v>
+      </c>
+      <c r="F75" t="s">
+        <v>23</v>
+      </c>
+      <c r="G75" t="s">
+        <v>292</v>
+      </c>
+      <c r="H75" t="s">
+        <v>262</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="J75" t="s">
+        <v>293</v>
+      </c>
+      <c r="K75" t="s">
+        <v>294</v>
+      </c>
+      <c r="L75" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>179</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>1922</v>
+      </c>
+      <c r="D76">
+        <v>1934</v>
+      </c>
+      <c r="F76" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>296</v>
+      </c>
+      <c r="H76" t="s">
+        <v>262</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="J76" t="s">
+        <v>297</v>
+      </c>
+      <c r="K76" t="s">
+        <v>298</v>
+      </c>
+      <c r="L76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>168</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>1615</v>
+      </c>
+      <c r="D77">
+        <v>1601</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="H77" t="s">
+        <v>204</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.64652777777777781</v>
+      </c>
+      <c r="J77" t="s">
+        <v>301</v>
+      </c>
+      <c r="K77" t="s">
+        <v>302</v>
+      </c>
+      <c r="L77" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>177</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>1562</v>
+      </c>
+      <c r="D78">
+        <v>1666</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>304</v>
+      </c>
+      <c r="H78" t="s">
+        <v>204</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.8534722222222223</v>
+      </c>
+      <c r="J78" t="s">
+        <v>305</v>
+      </c>
+      <c r="K78" t="s">
+        <v>306</v>
+      </c>
+      <c r="L78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>171</v>
+      </c>
+      <c r="B79">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>1546</v>
+      </c>
+      <c r="D79">
+        <v>1598</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>244</v>
+      </c>
+      <c r="H79" t="s">
+        <v>204</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.68611111111111101</v>
+      </c>
+      <c r="J79" t="s">
+        <v>308</v>
+      </c>
+      <c r="K79" t="s">
+        <v>309</v>
+      </c>
+      <c r="L79" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>200</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>2622</v>
+      </c>
+      <c r="D80">
+        <v>2905</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>311</v>
+      </c>
+      <c r="H80" t="s">
+        <v>312</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.35833333333333334</v>
+      </c>
+      <c r="J80" t="s">
+        <v>313</v>
+      </c>
+      <c r="K80" t="s">
+        <v>314</v>
+      </c>
+      <c r="L80" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>188</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>2016</v>
+      </c>
+      <c r="D81">
+        <v>2083</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>316</v>
+      </c>
+      <c r="H81" t="s">
+        <v>262</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="J81" t="s">
+        <v>317</v>
+      </c>
+      <c r="K81" t="s">
+        <v>318</v>
+      </c>
+      <c r="L81" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>189</v>
+      </c>
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>697</v>
+      </c>
+      <c r="D82">
+        <v>645</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>320</v>
+      </c>
+      <c r="H82" t="s">
+        <v>262</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="J82" t="s">
+        <v>321</v>
+      </c>
+      <c r="K82" t="s">
+        <v>322</v>
+      </c>
+      <c r="L82" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>195</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>1962</v>
+      </c>
+      <c r="D83">
+        <v>2024</v>
+      </c>
+      <c r="F83" t="s">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>323</v>
+      </c>
+      <c r="H83" t="s">
+        <v>324</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="J83" t="s">
+        <v>325</v>
+      </c>
+      <c r="K83" t="s">
+        <v>326</v>
+      </c>
+      <c r="L83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>191</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>2209</v>
+      </c>
+      <c r="D84">
+        <v>2333</v>
+      </c>
+      <c r="F84" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H84" t="s">
+        <v>262</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.84930555555555554</v>
+      </c>
+      <c r="J84" t="s">
+        <v>329</v>
+      </c>
+      <c r="K84" t="s">
+        <v>330</v>
+      </c>
+      <c r="L84" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>181</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>1908</v>
+      </c>
+      <c r="D85">
+        <v>1924</v>
+      </c>
+      <c r="F85" t="s">
+        <v>118</v>
+      </c>
+      <c r="G85">
+        <v>1234567891</v>
+      </c>
+      <c r="H85" t="s">
+        <v>262</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="J85" t="s">
+        <v>332</v>
+      </c>
+      <c r="K85" t="s">
+        <v>333</v>
+      </c>
+      <c r="L85" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>194</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>1996</v>
+      </c>
+      <c r="D86">
+        <v>2378</v>
+      </c>
+      <c r="F86" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>335</v>
+      </c>
+      <c r="H86" t="s">
+        <v>336</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="J86" t="s">
+        <v>337</v>
+      </c>
+      <c r="K86" t="s">
+        <v>338</v>
+      </c>
+      <c r="L86" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>192</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>2209</v>
+      </c>
+      <c r="D87">
+        <v>2333</v>
+      </c>
+      <c r="F87" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="H87" t="s">
+        <v>262</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="J87" t="s">
+        <v>340</v>
+      </c>
+      <c r="K87" t="s">
+        <v>341</v>
+      </c>
+      <c r="L87" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>199</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>2622</v>
+      </c>
+      <c r="D88">
+        <v>2905</v>
+      </c>
+      <c r="F88" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H88" t="s">
+        <v>312</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="J88" t="s">
+        <v>344</v>
+      </c>
+      <c r="K88" t="s">
+        <v>345</v>
+      </c>
+      <c r="L88" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>196</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <v>1481</v>
+      </c>
+      <c r="D89">
+        <v>1890</v>
+      </c>
+      <c r="F89" t="s">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>347</v>
+      </c>
+      <c r="H89" t="s">
+        <v>324</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.43124999999999997</v>
+      </c>
+      <c r="J89" t="s">
+        <v>348</v>
+      </c>
+      <c r="K89" t="s">
+        <v>349</v>
+      </c>
+      <c r="L89" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>203</v>
+      </c>
+      <c r="B90">
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>1600</v>
+      </c>
+      <c r="D90">
+        <v>1579</v>
+      </c>
+      <c r="F90" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>351</v>
+      </c>
+      <c r="H90" t="s">
+        <v>312</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="J90" t="s">
+        <v>352</v>
+      </c>
+      <c r="K90" t="s">
+        <v>353</v>
+      </c>
+      <c r="L90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>197</v>
+      </c>
+      <c r="B91">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>762</v>
+      </c>
+      <c r="D91">
+        <v>726</v>
+      </c>
+      <c r="F91" t="s">
+        <v>23</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H91" t="s">
+        <v>324</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="J91" t="s">
+        <v>356</v>
+      </c>
+      <c r="K91" t="s">
+        <v>357</v>
+      </c>
+      <c r="L91" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>202</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>497</v>
+      </c>
+      <c r="D92">
+        <v>460</v>
+      </c>
+      <c r="E92">
+        <v>22</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H92" t="s">
+        <v>312</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="J92" t="s">
+        <v>360</v>
+      </c>
+      <c r="K92" t="s">
+        <v>361</v>
+      </c>
+      <c r="L92" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>198</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>590</v>
+      </c>
+      <c r="D93">
+        <v>542</v>
+      </c>
+      <c r="E93">
+        <v>24</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>363</v>
+      </c>
+      <c r="H93" t="s">
+        <v>324</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.74861111111111101</v>
+      </c>
+      <c r="J93" t="s">
+        <v>364</v>
+      </c>
+      <c r="K93" t="s">
+        <v>365</v>
+      </c>
+      <c r="L93" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>204</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>1600</v>
+      </c>
+      <c r="D94">
+        <v>1579</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>351</v>
+      </c>
+      <c r="H94" t="s">
+        <v>312</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="J94" t="s">
+        <v>367</v>
+      </c>
+      <c r="K94" t="s">
+        <v>368</v>
+      </c>
+      <c r="L94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>201</v>
+      </c>
+      <c r="B95">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>1335</v>
+      </c>
+      <c r="D95">
+        <v>2907</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H95" t="s">
+        <v>312</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="J95" t="s">
+        <v>371</v>
+      </c>
+      <c r="K95" t="s">
+        <v>372</v>
+      </c>
+      <c r="L95" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>193</v>
+      </c>
+      <c r="B96">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>1978</v>
+      </c>
+      <c r="D96">
+        <v>2381</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>374</v>
+      </c>
+      <c r="H96" t="s">
+        <v>336</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.27291666666666664</v>
+      </c>
+      <c r="J96" t="s">
+        <v>375</v>
+      </c>
+      <c r="K96" t="s">
+        <v>376</v>
+      </c>
+      <c r="L96" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>208</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>403</v>
+      </c>
+      <c r="D97">
+        <v>3077</v>
+      </c>
+      <c r="F97" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97">
+        <v>5555555555</v>
+      </c>
+      <c r="H97" t="s">
+        <v>312</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="J97" t="s">
+        <v>378</v>
+      </c>
+      <c r="K97" t="s">
+        <v>379</v>
+      </c>
+      <c r="L97" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>224</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>3529</v>
+      </c>
+      <c r="D98">
+        <v>3899</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>380</v>
+      </c>
+      <c r="H98" t="s">
+        <v>381</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="J98" t="s">
+        <v>382</v>
+      </c>
+      <c r="K98" t="s">
+        <v>383</v>
+      </c>
+      <c r="L98" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>215</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2858</v>
+      </c>
+      <c r="D99">
+        <v>3105</v>
+      </c>
+      <c r="F99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>385</v>
+      </c>
+      <c r="H99" t="s">
+        <v>386</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="J99" t="s">
+        <v>387</v>
+      </c>
+      <c r="K99" t="s">
+        <v>388</v>
+      </c>
+      <c r="L99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>217</v>
+      </c>
+      <c r="B100">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>816</v>
+      </c>
+      <c r="D100">
+        <v>785</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H100" t="s">
+        <v>391</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.62777777777777777</v>
+      </c>
+      <c r="J100" t="s">
+        <v>392</v>
+      </c>
+      <c r="K100" t="s">
+        <v>393</v>
+      </c>
+      <c r="L100" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>120</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>869</v>
+      </c>
+      <c r="D101">
+        <v>940</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>395</v>
+      </c>
+      <c r="H101" t="s">
+        <v>71</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0.66597222222222219</v>
+      </c>
+      <c r="J101" t="s">
+        <v>396</v>
+      </c>
+      <c r="K101" t="s">
+        <v>397</v>
+      </c>
+      <c r="L101" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>219</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>3149</v>
+      </c>
+      <c r="D102">
+        <v>3471</v>
+      </c>
+      <c r="E102">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>399</v>
+      </c>
+      <c r="H102" t="s">
+        <v>400</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="J102" t="s">
+        <v>401</v>
+      </c>
+      <c r="K102" t="s">
+        <v>402</v>
+      </c>
+      <c r="L102" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>223</v>
+      </c>
+      <c r="B103">
+        <v>11</v>
+      </c>
+      <c r="C103">
+        <v>3014</v>
+      </c>
+      <c r="D103">
+        <v>3722</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>404</v>
+      </c>
+      <c r="H103" t="s">
+        <v>405</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="J103" t="s">
+        <v>406</v>
+      </c>
+      <c r="K103" t="s">
+        <v>407</v>
+      </c>
+      <c r="L103" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>222</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>65</v>
+      </c>
+      <c r="D104">
+        <v>3718</v>
+      </c>
+      <c r="E104">
+        <v>27</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>409</v>
+      </c>
+      <c r="H104" t="s">
+        <v>410</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="J104" t="s">
+        <v>411</v>
+      </c>
+      <c r="K104" t="s">
+        <v>412</v>
+      </c>
+      <c r="L104" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>221</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>65</v>
+      </c>
+      <c r="D105">
+        <v>3718</v>
+      </c>
+      <c r="F105" t="s">
+        <v>118</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="H105" t="s">
+        <v>410</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="J105" t="s">
+        <v>415</v>
+      </c>
+      <c r="K105" t="s">
+        <v>416</v>
+      </c>
+      <c r="L105" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>220</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>434</v>
+      </c>
+      <c r="D106">
+        <v>3626</v>
+      </c>
+      <c r="E106">
+        <v>28</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H106" t="s">
+        <v>400</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="J106" t="s">
+        <v>419</v>
+      </c>
+      <c r="K106" t="s">
+        <v>420</v>
+      </c>
+      <c r="L106" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>218</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>3188</v>
+      </c>
+      <c r="D107">
+        <v>3520</v>
+      </c>
+      <c r="E107">
+        <v>29</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>422</v>
+      </c>
+      <c r="H107" t="s">
+        <v>391</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="J107" t="s">
+        <v>423</v>
+      </c>
+      <c r="K107" t="s">
+        <v>424</v>
+      </c>
+      <c r="L107" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>210</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>2777</v>
+      </c>
+      <c r="D108">
+        <v>3013</v>
+      </c>
+      <c r="F108" t="s">
+        <v>23</v>
+      </c>
+      <c r="G108" t="s">
+        <v>426</v>
+      </c>
+      <c r="H108" t="s">
+        <v>120</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0.26944444444444443</v>
+      </c>
+      <c r="J108" t="s">
+        <v>427</v>
+      </c>
+      <c r="K108" t="s">
+        <v>428</v>
+      </c>
+      <c r="L108" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>172</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>1546</v>
+      </c>
+      <c r="D109">
+        <v>1598</v>
+      </c>
+      <c r="F109" t="s">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>244</v>
+      </c>
+      <c r="H109" t="s">
+        <v>204</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="J109" t="s">
+        <v>430</v>
+      </c>
+      <c r="K109" t="s">
+        <v>431</v>
+      </c>
+      <c r="L109" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>161</v>
+      </c>
+      <c r="B110">
+        <v>6</v>
+      </c>
+      <c r="C110">
+        <v>1219</v>
+      </c>
+      <c r="D110">
+        <v>1192</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>433</v>
+      </c>
+      <c r="H110" t="s">
+        <v>204</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="J110" t="s">
+        <v>434</v>
+      </c>
+      <c r="K110" t="s">
+        <v>435</v>
+      </c>
+      <c r="L110" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>209</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>384</v>
+      </c>
+      <c r="D111">
+        <v>400</v>
+      </c>
+      <c r="F111" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>437</v>
+      </c>
+      <c r="H111" t="s">
+        <v>120</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0.25555555555555559</v>
+      </c>
+      <c r="J111" t="s">
+        <v>438</v>
+      </c>
+      <c r="K111" t="s">
+        <v>439</v>
+      </c>
+      <c r="L111" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>227</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>3563</v>
+      </c>
+      <c r="D112">
+        <v>3930</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>441</v>
+      </c>
+      <c r="H112" t="s">
+        <v>442</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0.4597222222222222</v>
+      </c>
+      <c r="J112" t="s">
+        <v>443</v>
+      </c>
+      <c r="K112" t="s">
+        <v>444</v>
+      </c>
+      <c r="L112" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>226</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>3565</v>
+      </c>
+      <c r="D113">
+        <v>3922</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>446</v>
+      </c>
+      <c r="H113" t="s">
+        <v>442</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="J113" t="s">
+        <v>447</v>
+      </c>
+      <c r="K113" t="s">
+        <v>448</v>
+      </c>
+      <c r="L113" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>212</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+      <c r="C114">
+        <v>3045</v>
+      </c>
+      <c r="D114">
+        <v>3322</v>
+      </c>
+      <c r="E114">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
+        <v>23</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H114" t="s">
+        <v>386</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="J114" t="s">
+        <v>451</v>
+      </c>
+      <c r="K114" t="s">
+        <v>452</v>
+      </c>
+      <c r="L114" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>225</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>335</v>
+      </c>
+      <c r="D115">
+        <v>427</v>
+      </c>
+      <c r="F115" t="s">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>454</v>
+      </c>
+      <c r="H115" t="s">
+        <v>442</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0.28541666666666665</v>
+      </c>
+      <c r="J115" t="s">
+        <v>455</v>
+      </c>
+      <c r="K115" t="s">
+        <v>456</v>
+      </c>
+      <c r="L115" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>216</v>
+      </c>
+      <c r="B116">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>3143</v>
+      </c>
+      <c r="D116">
+        <v>3464</v>
+      </c>
+      <c r="F116" t="s">
+        <v>23</v>
+      </c>
+      <c r="G116" t="s">
+        <v>458</v>
+      </c>
+      <c r="H116" t="s">
+        <v>386</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="J116" t="s">
+        <v>459</v>
+      </c>
+      <c r="K116" t="s">
+        <v>460</v>
+      </c>
+      <c r="L116" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>211</v>
+      </c>
+      <c r="B117">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>2891</v>
+      </c>
+      <c r="D117">
+        <v>3127</v>
+      </c>
+      <c r="E117">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
+        <v>23</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H117" t="s">
+        <v>120</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.4055555555555555</v>
+      </c>
+      <c r="J117" t="s">
+        <v>463</v>
+      </c>
+      <c r="K117" t="s">
+        <v>464</v>
+      </c>
+      <c r="L117" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>214</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>3036</v>
+      </c>
+      <c r="D118">
+        <v>3312</v>
+      </c>
+      <c r="E118">
+        <v>30</v>
+      </c>
+      <c r="F118" t="s">
+        <v>23</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H118" t="s">
+        <v>386</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="J118" t="s">
+        <v>467</v>
+      </c>
+      <c r="K118" t="s">
+        <v>468</v>
+      </c>
+      <c r="L118" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>213</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>3045</v>
+      </c>
+      <c r="D119">
+        <v>3322</v>
+      </c>
+      <c r="E119">
+        <v>34</v>
+      </c>
+      <c r="F119" t="s">
+        <v>23</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="H119" t="s">
+        <v>386</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0.3520833333333333</v>
+      </c>
+      <c r="J119" t="s">
+        <v>471</v>
+      </c>
+      <c r="K119" t="s">
+        <v>472</v>
+      </c>
+      <c r="L119" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/database/Tables/Appointments.xlsx
+++ b/database/Tables/Appointments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="14355" windowHeight="5205"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Appointments" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="488">
   <si>
     <t>id</t>
   </si>
@@ -1169,10 +1169,16 @@
     <t>2021-05-13 07:14:42.68+00</t>
   </si>
   <si>
-    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620150742/pxhlxblrm53htbmoeuqt.jpg}</t>
-  </si>
-  <si>
-    <t>2021-05-04 17:52:22.252+00</t>
+    <t>55555 cheedikada</t>
+  </si>
+  <si>
+    <t>2021-05-19 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1621393963/btsrxy33s1tokwfvr2q2.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-19 03:12:43.657+00</t>
   </si>
   <si>
     <t>à¤¸à¤¬à¤¸à¥‡ à¤…à¤šà¥à¤›à¥€ à¤¡à¥‡à¤°à¥€ à¤¹à¥ˆ</t>
@@ -1461,6 +1467,43 @@
   </si>
   <si>
     <t>2021-05-17 08:44:10.346+00</t>
+  </si>
+  <si>
+    <t>Good morning sir
+Please check gomari</t>
+  </si>
+  <si>
+    <t>2021-05-18 00:00:00+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1621315150/qZJIfEjZPwOeFs8U0jhg4Zz7.jpg,https://res.cloudinary.com/your-highness/image/upload/v1621315150/I6p_I-NpMdZM2Gze7tPFOCQs.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-18 05:19:11.053+00</t>
+  </si>
+  <si>
+    <t>2021-05-18 10:47:03.236+00</t>
+  </si>
+  <si>
+    <t>à°œà±à°µà°°à°‚ à°®à°°à°¿à°¯à± à°ªà±Šà°¦à±à°—à± à°µà°¾à°ªà± à°°à°¾à°µà°¡à°‚ à°œà°°à°¿à°—à°¿à°‚à°¦à°¿</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1621315456/bvpou356ofuhizjszhnx.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-18 05:24:17.487+00</t>
+  </si>
+  <si>
+    <t>2021-05-18 10:55:52.658+00</t>
+  </si>
+  <si>
+    <t>{https://res.cloudinary.com/your-highness/image/upload/v1620150742/pxhlxblrm53htbmoeuqt.jpg}</t>
+  </si>
+  <si>
+    <t>2021-05-04 17:52:22.252+00</t>
+  </si>
+  <si>
+    <t>2021-05-19 03:31:28.05+00</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5695,37 +5738,37 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>403</v>
+        <v>297</v>
       </c>
       <c r="D97">
-        <v>3077</v>
+        <v>315</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
-      <c r="G97">
-        <v>5555555555</v>
+      <c r="G97" t="s">
+        <v>378</v>
       </c>
       <c r="H97" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="I97" s="1">
-        <v>0.97361111111111109</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="J97" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K97" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L97" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5745,22 +5788,22 @@
         <v>23</v>
       </c>
       <c r="G98" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H98" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I98" s="1">
         <v>0.47152777777777777</v>
       </c>
       <c r="J98" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K98" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="L98" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -5780,22 +5823,22 @@
         <v>23</v>
       </c>
       <c r="G99" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H99" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I99" s="1">
         <v>0.77638888888888891</v>
       </c>
       <c r="J99" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K99" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L99" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -5815,22 +5858,22 @@
         <v>23</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H100" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I100" s="1">
         <v>0.62777777777777777</v>
       </c>
       <c r="J100" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K100" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L100" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -5850,7 +5893,7 @@
         <v>23</v>
       </c>
       <c r="G101" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H101" t="s">
         <v>71</v>
@@ -5859,13 +5902,13 @@
         <v>0.66597222222222219</v>
       </c>
       <c r="J101" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K101" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L101" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -5888,22 +5931,22 @@
         <v>23</v>
       </c>
       <c r="G102" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H102" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I102" s="1">
         <v>0.45694444444444443</v>
       </c>
       <c r="J102" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K102" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L102" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -5923,22 +5966,22 @@
         <v>23</v>
       </c>
       <c r="G103" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H103" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I103" s="1">
         <v>0.33124999999999999</v>
       </c>
       <c r="J103" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K103" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L103" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -5961,22 +6004,22 @@
         <v>23</v>
       </c>
       <c r="G104" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H104" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I104" s="1">
         <v>0.81944444444444453</v>
       </c>
       <c r="J104" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K104" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L104" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -5996,22 +6039,22 @@
         <v>118</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="H105" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I105" s="1">
         <v>0.81874999999999998</v>
       </c>
       <c r="J105" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K105" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="L105" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6034,22 +6077,22 @@
         <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H106" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I106" s="1">
         <v>0.73263888888888884</v>
       </c>
       <c r="J106" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K106" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L106" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -6072,22 +6115,22 @@
         <v>12</v>
       </c>
       <c r="G107" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H107" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I107" s="1">
         <v>0.6430555555555556</v>
       </c>
       <c r="J107" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K107" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L107" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6107,7 +6150,7 @@
         <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H108" t="s">
         <v>120</v>
@@ -6116,13 +6159,13 @@
         <v>0.26944444444444443</v>
       </c>
       <c r="J108" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K108" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L108" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6151,13 +6194,13 @@
         <v>0.68680555555555556</v>
       </c>
       <c r="J109" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K109" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L109" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -6177,7 +6220,7 @@
         <v>23</v>
       </c>
       <c r="G110" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H110" t="s">
         <v>204</v>
@@ -6186,13 +6229,13 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="J110" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K110" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L110" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -6212,7 +6255,7 @@
         <v>23</v>
       </c>
       <c r="G111" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H111" t="s">
         <v>120</v>
@@ -6221,13 +6264,13 @@
         <v>0.25555555555555559</v>
       </c>
       <c r="J111" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K111" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L111" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -6247,22 +6290,22 @@
         <v>23</v>
       </c>
       <c r="G112" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H112" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I112" s="1">
         <v>0.4597222222222222</v>
       </c>
       <c r="J112" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K112" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L112" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -6282,22 +6325,22 @@
         <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H113" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I113" s="1">
         <v>0.28680555555555554</v>
       </c>
       <c r="J113" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K113" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L113" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -6320,22 +6363,22 @@
         <v>23</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H114" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I114" s="1">
         <v>0.35138888888888892</v>
       </c>
       <c r="J114" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K114" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L114" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -6355,22 +6398,22 @@
         <v>23</v>
       </c>
       <c r="G115" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H115" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I115" s="1">
         <v>0.28541666666666665</v>
       </c>
       <c r="J115" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K115" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L115" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -6390,22 +6433,22 @@
         <v>23</v>
       </c>
       <c r="G116" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H116" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I116" s="1">
         <v>0.8222222222222223</v>
       </c>
       <c r="J116" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="K116" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L116" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -6428,7 +6471,7 @@
         <v>23</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="H117" t="s">
         <v>120</v>
@@ -6437,13 +6480,13 @@
         <v>0.4055555555555555</v>
       </c>
       <c r="J117" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="K117" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L117" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -6466,22 +6509,22 @@
         <v>23</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H118" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I118" s="1">
         <v>0.39444444444444443</v>
       </c>
       <c r="J118" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K118" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L118" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -6504,22 +6547,133 @@
         <v>23</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H119" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I119" s="1">
         <v>0.3520833333333333</v>
       </c>
       <c r="J119" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K119" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L119" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>228</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>339</v>
+      </c>
+      <c r="D120">
+        <v>342</v>
+      </c>
+      <c r="E120">
+        <v>35</v>
+      </c>
+      <c r="F120" t="s">
+        <v>23</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H120" t="s">
+        <v>477</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="J120" t="s">
+        <v>478</v>
+      </c>
+      <c r="K120" t="s">
+        <v>479</v>
+      </c>
+      <c r="L120" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>229</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>2964</v>
+      </c>
+      <c r="D121">
+        <v>3290</v>
+      </c>
+      <c r="E121">
+        <v>36</v>
+      </c>
+      <c r="F121" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>481</v>
+      </c>
+      <c r="H121" t="s">
+        <v>477</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0.45416666666666666</v>
+      </c>
+      <c r="J121" t="s">
+        <v>482</v>
+      </c>
+      <c r="K121" t="s">
+        <v>483</v>
+      </c>
+      <c r="L121" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>208</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>403</v>
+      </c>
+      <c r="D122">
+        <v>3077</v>
+      </c>
+      <c r="F122" t="s">
+        <v>23</v>
+      </c>
+      <c r="G122">
+        <v>5555555555</v>
+      </c>
+      <c r="H122" t="s">
+        <v>312</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0.97361111111111109</v>
+      </c>
+      <c r="J122" t="s">
+        <v>485</v>
+      </c>
+      <c r="K122" t="s">
+        <v>486</v>
+      </c>
+      <c r="L122" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
